--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Área de Trabalho\Professional\Cenergia - Emission Simulator\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77387D15-EA60-4ECA-B0D4-1A04ED36B3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10E6C3-C124-4D23-921B-056A2CB5706A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="1356" windowWidth="17628" windowHeight="12000" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="10" r:id="rId2"/>
     <sheet name="freight-HDV" sheetId="17" r:id="rId3"/>
     <sheet name="freight-Ship" sheetId="15" r:id="rId4"/>
-    <sheet name="FoVObE-passengers" sheetId="11" r:id="rId5"/>
-    <sheet name="FoVObE-freight" sheetId="12" r:id="rId6"/>
+    <sheet name="Set_pass" sheetId="18" r:id="rId5"/>
+    <sheet name="Set_frght" sheetId="19" r:id="rId6"/>
+    <sheet name="FoVObE-passengers" sheetId="11" r:id="rId7"/>
+    <sheet name="FoVObE-freight" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="outputfrac_bio">#REF!</definedName>
@@ -33,7 +35,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>LDVs, passenger</t>
   </si>
@@ -415,11 +422,17 @@
   <si>
     <t>For industry, in road and waterway transport cases, we calculate the industry owership based on the percentage of products transported.</t>
   </si>
+  <si>
+    <t>domestic industries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,7 +768,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -787,7 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -843,15 +855,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -869,31 +872,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="6" builtinId="5"/>
     <cellStyle name="Source Text" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <border>
         <top style="thin">
@@ -1122,9 +1117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1162,9 +1157,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1197,26 +1192,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,26 +1227,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1444,119 +1405,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="38">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="34">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="38">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="34">
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -1579,271 +1540,271 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="33">
         <v>2.560717709316894E-3</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>9.9640174100549227E-4</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <v>0.99644288054967767</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="33">
         <v>0.6</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <f>1-C3</f>
         <v>0.4</v>
       </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="37">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
         <v>1</v>
       </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="37">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="33">
         <v>0.01</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="33">
         <v>0.01</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <f>1-(C7+D7)</f>
         <v>0.98</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="37">
-        <v>0</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37">
-        <v>0</v>
-      </c>
-      <c r="D9" s="37">
+      <c r="C9" s="33">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
         <v>1</v>
       </c>
-      <c r="E9" s="37">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="37">
-        <v>0</v>
-      </c>
-      <c r="D10" s="37">
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
         <v>1</v>
       </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="37">
-        <v>0</v>
-      </c>
-      <c r="D11" s="37">
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="37">
-        <v>0</v>
-      </c>
-      <c r="D12" s="37">
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
         <v>1</v>
       </c>
-      <c r="E12" s="37">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1861,40 +1822,40 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1902,7 +1863,7 @@
         <v>2.2020786406437756E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1871,7 @@
         <v>9.0092391802747019E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1918,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1926,26 +1887,26 @@
         <v>1.8017523713989358E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="39">
         <v>4.904754930070182E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +1914,7 @@
         <v>3.9315618317814327E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1961,7 +1922,7 @@
         <v>9.2243548220630578E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1969,43 +1930,43 @@
         <v>2.5591170948187771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="39">
         <f>SUM(B14:B16)</f>
         <v>0.15715033748663268</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>99</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>98</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2016,7 +1977,7 @@
         <v>2.3117122504209692E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
@@ -2027,7 +1988,7 @@
         <v>1.7507071829735373E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -2038,7 +1999,7 @@
         <v>3.2795253012077023E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2010,7 @@
         <v>2.3757774218404481E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2021,7 @@
         <v>2.5591170948187771E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -2071,7 +2032,7 @@
         <v>3.9315618317814327E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
@@ -2082,7 +2043,7 @@
         <v>2.2020786406437756E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
@@ -2093,7 +2054,7 @@
         <v>1.8017523713989358E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
@@ -2104,7 +2065,7 @@
         <v>3.4205700503589336E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
@@ -2115,7 +2076,7 @@
         <v>3.5090520131377118E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2087,7 @@
         <v>9.2243548220630578E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
@@ -2137,7 +2098,7 @@
         <v>6.2744062559738425E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>53</v>
       </c>
@@ -2148,7 +2109,7 @@
         <v>8.4593754353820341E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
@@ -2159,7 +2120,7 @@
         <v>1.3091291937331022E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>53</v>
       </c>
@@ -2170,7 +2131,7 @@
         <v>3.0357499478468873E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
@@ -2181,7 +2142,7 @@
         <v>2.4968163140259625E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>53</v>
       </c>
@@ -2192,7 +2153,7 @@
         <v>2.3110369499157818E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>53</v>
       </c>
@@ -2203,7 +2164,7 @@
         <v>0.11987236446263898</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -2214,7 +2175,7 @@
         <v>5.8138044010715446E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2186,7 @@
         <v>9.0092391802747019E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>53</v>
       </c>
@@ -2236,7 +2197,7 @@
         <v>6.3329301796566734E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
@@ -2247,7 +2208,7 @@
         <v>2.0275875627793455E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2219,7 @@
         <v>3.3134121352104595E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2230,7 @@
         <v>1.2554555162046196E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
@@ -2280,7 +2241,7 @@
         <v>7.1336422553775879E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
@@ -2291,7 +2252,7 @@
         <v>0.18349232373441351</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
@@ -2304,18 +2265,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B22:B30">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>IF($T6&lt;&gt;$T5,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>IF($T21&lt;&gt;$T20,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>IF($T22&lt;&gt;$T21,1,0)</formula>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>IF(#REF!&lt;&gt;$T14,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
@@ -2323,29 +2279,29 @@
       <formula>IF($T15&lt;&gt;#REF!,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>IF(#REF!&lt;&gt;$T14,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B33:B36">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>IF($T16&lt;&gt;$T15,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>IF($T20&lt;&gt;#REF!,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>IF(#REF!&lt;&gt;$T19,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B45">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>IF(#REF!&lt;&gt;#REF!,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>IF($T20&lt;&gt;#REF!,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B48">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($T21&lt;&gt;$T20,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2361,95 +2317,95 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="41" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="37" t="s">
         <v>112</v>
       </c>
       <c r="K10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="42">
         <v>0.54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="42">
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="42">
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="42">
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="42">
         <v>0.06</v>
       </c>
     </row>
@@ -2460,29 +2416,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0E761E-DD35-4A50-BF7C-9B648E01761F}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="10" width="21.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -2490,7 +2444,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -2498,229 +2452,263 @@
       <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <f>Results!C2</f>
         <v>2.560717709316894E-3</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="43">
+        <f>SUM(G2:L2)</f>
+        <v>9.9640174100549227E-4</v>
+      </c>
+      <c r="D2" s="40">
+        <f>Results!E2</f>
+        <v>0.99644288054967767</v>
+      </c>
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40">
         <f>Results!D2</f>
         <v>9.9640174100549227E-4</v>
       </c>
-      <c r="D2" s="44">
-        <f>Results!E2</f>
-        <v>0.99644288054967767</v>
-      </c>
-      <c r="E2" s="44">
-        <v>0</v>
-      </c>
-      <c r="F2" s="44">
-        <v>0</v>
-      </c>
-      <c r="G2" s="44">
-        <v>0</v>
-      </c>
-      <c r="H2" s="44">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44">
-        <v>0</v>
-      </c>
-      <c r="J2" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="40">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40">
+        <v>0</v>
+      </c>
+      <c r="K2" s="40">
+        <v>0</v>
+      </c>
+      <c r="L2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="40">
         <f>Results!C3</f>
         <v>0.6</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
+        <f>SUM(G3:L3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="40">
+        <f>Results!E3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40">
         <f>Results!D3</f>
         <v>0.4</v>
       </c>
-      <c r="D3" s="44">
-        <f>Results!E3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44">
-        <v>0</v>
-      </c>
-      <c r="J3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="40">
+        <v>0</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40">
+        <v>0</v>
+      </c>
+      <c r="K3" s="40">
+        <v>0</v>
+      </c>
+      <c r="L3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="40">
         <f>Results!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
+        <f>SUM(G4:L4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <f>Results!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40">
         <f>Results!D4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="44">
-        <f>Results!E4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="44">
-        <v>0</v>
-      </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0</v>
+      </c>
+      <c r="K4" s="40">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="40">
         <f>Results!C5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
+        <f>SUM(G5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <f>Results!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40">
         <f>Results!D5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="44">
-        <f>Results!E5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="40">
         <f>Results!C6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
+        <f>SUM(G6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <f>Results!E6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40">
         <f>Results!D6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="44">
-        <f>Results!E6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0</v>
+      </c>
+      <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="40">
         <f>Results!C7</f>
         <v>0.01</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
+        <f>SUM(G7:L7)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="40">
+        <f>Results!E7</f>
+        <v>0.98</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40">
         <f>Results!D7</f>
         <v>0.01</v>
       </c>
-      <c r="D7" s="44">
-        <f>Results!E7</f>
-        <v>0.98</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44">
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2731,27 +2719,507 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535F7217-8465-4E8A-9CE6-CFC73EA6457C}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="8" width="21.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="40">
+        <f>Results!C8</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="40">
+        <f>Results!$D8-SUM(F2:J2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
+        <f>Results!E8</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="40">
+        <f>Results!C9</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="40">
+        <f>Results!$D9-SUM(F3:J3)</f>
+        <v>0.79380211321266547</v>
+      </c>
+      <c r="D3" s="40">
+        <f>Results!E9</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <f>'freight-HDV'!B11</f>
+        <v>4.904754930070182E-2</v>
+      </c>
+      <c r="I3" s="40">
+        <f>'freight-HDV'!B17</f>
+        <v>0.15715033748663268</v>
+      </c>
+      <c r="J3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="40">
+        <f>Results!C10</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="40">
+        <f>Results!$D10-SUM(F4:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <f>Results!E10</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0</v>
+      </c>
+      <c r="G4" s="40">
+        <v>0</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="40">
+        <f>Results!C11</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="40">
+        <f>Results!$D11-SUM(F5:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
+        <f>Results!E11</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="40">
+        <f>Results!C12</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="40">
+        <f>Results!$D12-SUM(F6:J6)</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D6" s="40">
+        <f>Results!E12</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <f>'freight-Ship'!K11</f>
+        <v>0.54</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="40">
+        <f>Results!C13</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="40">
+        <f>Results!$D13-SUM(F7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <f>Results!E13</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="10" width="21.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="40">
+        <f>Results!C2</f>
+        <v>2.560717709316894E-3</v>
+      </c>
+      <c r="C2" s="43">
+        <f>SUM(Set_pass!G2:L2)</f>
+        <v>9.9640174100549227E-4</v>
+      </c>
+      <c r="D2" s="40">
+        <f>Results!E2</f>
+        <v>0.99644288054967767</v>
+      </c>
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="40">
+        <f>Results!C3</f>
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="43">
+        <f>SUM(Set_pass!G3:L3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="40">
+        <f>Results!E3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="40">
+        <f>Results!C4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="43">
+        <f>SUM(Set_pass!G4:L4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <f>Results!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="40">
+        <f>Results!C5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="43">
+        <f>SUM(Set_pass!G5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <f>Results!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="40">
+        <f>Results!C6</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="43">
+        <f>SUM(Set_pass!G6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <f>Results!E6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="40">
+        <f>Results!C7</f>
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="43">
+        <f>SUM(Set_pass!G7:L7)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="40">
+        <f>Results!E7</f>
+        <v>0.98</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="8" width="21.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -2759,7 +3227,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>35</v>
@@ -2767,239 +3235,163 @@
       <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <f>Results!C8</f>
         <v>0</v>
       </c>
-      <c r="C2" s="44">
-        <f>Results!$D8-SUM(F2:J2)</f>
+      <c r="C2" s="40">
+        <f>Results!$D8-SUM(Set_frght!F2:J2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="40">
         <f>Results!E8</f>
         <v>0</v>
       </c>
-      <c r="E2" s="44">
-        <v>0</v>
-      </c>
-      <c r="F2" s="44">
-        <v>0</v>
-      </c>
-      <c r="G2" s="44">
-        <v>0</v>
-      </c>
-      <c r="H2" s="44">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44">
-        <v>0</v>
-      </c>
-      <c r="J2" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="40">
         <f>Results!C9</f>
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <f>Results!$D9-SUM(F3:J3)</f>
+      <c r="C3" s="40">
+        <f>Results!$D9-SUM(Set_frght!F3:J3)</f>
         <v>0.79380211321266547</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="40">
         <f>Results!E9</f>
         <v>0</v>
       </c>
-      <c r="E3" s="44">
-        <v>0</v>
-      </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-      <c r="H3" s="45">
-        <f>'freight-HDV'!B11</f>
-        <v>4.904754930070182E-2</v>
-      </c>
-      <c r="I3" s="44">
-        <f>'freight-HDV'!B17</f>
-        <v>0.15715033748663268</v>
-      </c>
-      <c r="J3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="40">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="40">
         <f>Results!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="44">
-        <f>Results!$D10-SUM(F4:J4)</f>
+      <c r="C4" s="40">
+        <f>Results!$D10-SUM(Set_frght!F4:J4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <f>Results!E10</f>
         <v>0</v>
       </c>
-      <c r="E4" s="44">
-        <v>0</v>
-      </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="40">
         <f>Results!C11</f>
         <v>0</v>
       </c>
-      <c r="C5" s="44">
-        <f>Results!$D11-SUM(F5:J5)</f>
+      <c r="C5" s="40">
+        <f>Results!$D11-SUM(Set_frght!F5:J5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <f>Results!E11</f>
         <v>0</v>
       </c>
-      <c r="E5" s="44">
-        <v>0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="40">
         <f>Results!C12</f>
         <v>0</v>
       </c>
-      <c r="C6" s="44">
-        <f>Results!$D12-SUM(F6:J6)</f>
+      <c r="C6" s="40">
+        <f>Results!$D12-SUM(Set_frght!F6:J6)</f>
         <v>0.45999999999999996</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <f>Results!E12</f>
         <v>0</v>
       </c>
-      <c r="E6" s="44">
-        <v>0</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <f>'freight-Ship'!K11</f>
-        <v>0.54</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="40">
         <f>Results!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="44">
-        <f>Results!$D13-SUM(F7:J7)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="C7" s="40">
+        <f>Results!$D13-SUM(Set_frght!F7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
         <f>Results!E13</f>
         <v>0</v>
       </c>
-      <c r="E7" s="44">
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44">
-        <v>0</v>
-      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C7 C4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>